--- a/AZ-204/Installationen.xlsx
+++ b/AZ-204/Installationen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai.Roth\Documents\Development\AZ 203\AZ 203\Azure\AZ-204\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobias.pitzschke\Documents\Projekte\AZ204\AZ-204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6128E130-8788-4C2A-B2E5-CB63F5EC0E30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD24631F-C328-4E25-88E0-27C3FD9B8AAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="1380" windowWidth="17205" windowHeight="11385" xr2:uid="{E8A71ACD-B58C-4694-A4DB-5B24B3F2BCA5}"/>
+    <workbookView xWindow="6705" yWindow="2640" windowWidth="21090" windowHeight="10320" xr2:uid="{E8A71ACD-B58C-4694-A4DB-5B24B3F2BCA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Software</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Visual Studio Code Azure Resource Manager Tools Extension</t>
-  </si>
-  <si>
-    <t>https://marketplace.visualstudio.com/items?itemName=msvscode.azure-account</t>
   </si>
   <si>
     <t>Visual Studio Code Azure CLI Tools
@@ -63,18 +60,9 @@
     <t>Visual Studio Code PowerShell Extension</t>
   </si>
   <si>
-    <t>https://marketplace.visualstudio.com/items?itemName=msvscode.PowerShell</t>
-  </si>
-  <si>
     <t>Visual Studio Code C# Extension</t>
   </si>
   <si>
-    <t>https://marketplace.visualstudio.com/items?itemName=msvscode.csharp</t>
-  </si>
-  <si>
-    <t>PowerShell 6</t>
-  </si>
-  <si>
     <t>https://github.com/PowerShell/PowerShell/releases/latest/</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>https://git-scm.com/download/win</t>
   </si>
   <si>
-    <t>.NET Core 3.1.1 SDK</t>
-  </si>
-  <si>
     <t>https://dotnet.microsoft.com/download</t>
   </si>
   <si>
@@ -123,9 +108,6 @@
     <t>Google Chrome / Microsoft Edge</t>
   </si>
   <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>https://docs.docker.com/docker-for-windows/install/</t>
   </si>
   <si>
@@ -135,14 +117,112 @@
     <t>https://marketplace.visualstudio.com/items?itemName=msazurermtools.azurerm-vscode-tools</t>
   </si>
   <si>
-    <t>https://marketplace.visualstudio.com/items?itemName=msvscode.azurecli</t>
+    <t>https://marketplace.visualstudio.com/items?itemName=ms-vscode.azure-account</t>
+  </si>
+  <si>
+    <t>https://marketplace.visualstudio.com/items?itemName=ms-vscode.azurecli</t>
+  </si>
+  <si>
+    <t>https://marketplace.visualstudio.com/items?itemName=ms-vscode.PowerShell</t>
+  </si>
+  <si>
+    <t>https://marketplace.visualstudio.com/items?itemName=ms-dotnettools.csharp</t>
+  </si>
+  <si>
+    <t>PowerShell 7</t>
+  </si>
+  <si>
+    <t>.NET Core 3.1 &amp; 5.0 SDK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Docker + </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">indows </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ubsystem for </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inux (WSL 2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Storage Emulator / Azurite ???</t>
+  </si>
+  <si>
+    <t>.NET Tool - HttpRepl</t>
+  </si>
+  <si>
+    <t>https://github.com/dotnet/HttpRepl</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/azure/azure-functions/functions-run-local#v3</t>
+  </si>
+  <si>
+    <t>Azure Functions Core Tools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +234,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147D2FD6-721A-4F46-B91E-34CD48F44A5F}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -545,132 +633,156 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{05E6387D-C6AB-4D34-9C5A-7C07705FB1EA}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{119DD54D-355F-4655-BBBB-38FDDADDF2C1}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{57D8AD60-9866-405E-BECD-FC0D55F08294}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{D7888FF8-53F3-4EA8-AA25-54315839BED2}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{427AE879-A0D7-4825-A120-527CDC612081}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{8F2C2A0A-E4B6-4037-B08A-00E94D60E4F5}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{F536E5A5-5C0E-43A1-BB57-BA367AFA10B5}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{74C2D39C-BC2E-414E-AF8E-FBC85462BBAB}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{612D64BC-7106-4D0D-B324-283DEE277936}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{940613D5-332C-4D02-8F07-D76F3184D03D}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{576ADEEE-21AD-4E29-81DD-8F916008FAE4}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{77ED3F70-1456-4D87-92C9-8934FA770873}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{1F6F058D-6E8A-433B-87AA-38F1416EA4FB}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{8AA0DA74-6CE8-4D71-BF99-6AB51E271B9E}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{8EDE30CC-0E07-4DD2-85BA-3981D222C343}"/>
-    <hyperlink ref="B16" r:id="rId16" xr:uid="{D5CC5BBF-4F8F-41F4-95BC-1C1526913ED0}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{57D8AD60-9866-405E-BECD-FC0D55F08294}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{F536E5A5-5C0E-43A1-BB57-BA367AFA10B5}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{74C2D39C-BC2E-414E-AF8E-FBC85462BBAB}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{612D64BC-7106-4D0D-B324-283DEE277936}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{940613D5-332C-4D02-8F07-D76F3184D03D}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{576ADEEE-21AD-4E29-81DD-8F916008FAE4}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{77ED3F70-1456-4D87-92C9-8934FA770873}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{1F6F058D-6E8A-433B-87AA-38F1416EA4FB}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{8AA0DA74-6CE8-4D71-BF99-6AB51E271B9E}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{8EDE30CC-0E07-4DD2-85BA-3981D222C343}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{D5CC5BBF-4F8F-41F4-95BC-1C1526913ED0}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{8F2C2A0A-E4B6-4037-B08A-00E94D60E4F5}"/>
+    <hyperlink ref="B6" r:id="rId13" xr:uid="{427AE879-A0D7-4825-A120-527CDC612081}"/>
+    <hyperlink ref="B5" r:id="rId14" xr:uid="{D7888FF8-53F3-4EA8-AA25-54315839BED2}"/>
+    <hyperlink ref="B3" r:id="rId15" xr:uid="{119DD54D-355F-4655-BBBB-38FDDADDF2C1}"/>
+    <hyperlink ref="B4" r:id="rId16" xr:uid="{05E6387D-C6AB-4D34-9C5A-7C07705FB1EA}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{559E4346-BA80-4675-8ADC-11D9A6CED42F}"/>
+    <hyperlink ref="B19" r:id="rId18" location="v3" xr:uid="{16344170-A8BE-4E7D-A392-BE1614691689}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>